--- a/nlp/scripts/sequence_runs.xlsx
+++ b/nlp/scripts/sequence_runs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,6 +459,11 @@
           <t>Total Time Duration (hours)</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Top Runs Ranking</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -478,6 +483,9 @@
       <c r="E2" t="n">
         <v>1.989444444444444</v>
       </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -497,6 +505,9 @@
       <c r="E3" t="n">
         <v>2.314444444444445</v>
       </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -516,6 +527,9 @@
       <c r="E4" t="n">
         <v>1.047222222222222</v>
       </c>
+      <c r="F4" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -535,6 +549,9 @@
       <c r="E5" t="n">
         <v>0.3636111111111111</v>
       </c>
+      <c r="F5" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -554,6 +571,9 @@
       <c r="E6" t="n">
         <v>1.928055555555556</v>
       </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -573,6 +593,9 @@
       <c r="E7" t="n">
         <v>1.355555555555555</v>
       </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -592,6 +615,9 @@
       <c r="E8" t="n">
         <v>1.808333333333333</v>
       </c>
+      <c r="F8" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -611,6 +637,9 @@
       <c r="E9" t="n">
         <v>1.136111111111111</v>
       </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -630,6 +659,9 @@
       <c r="E10" t="n">
         <v>1.194444444444444</v>
       </c>
+      <c r="F10" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -649,6 +681,9 @@
       <c r="E11" t="n">
         <v>1.695277777777778</v>
       </c>
+      <c r="F11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +703,9 @@
       <c r="E12" t="n">
         <v>0.3397222222222222</v>
       </c>
+      <c r="F12" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -687,6 +725,9 @@
       <c r="E13" t="n">
         <v>0.8805555555555556</v>
       </c>
+      <c r="F13" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -706,6 +747,9 @@
       <c r="E14" t="n">
         <v>2.045555555555556</v>
       </c>
+      <c r="F14" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -725,6 +769,9 @@
       <c r="E15" t="n">
         <v>2.062777777777778</v>
       </c>
+      <c r="F15" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -744,6 +791,9 @@
       <c r="E16" t="n">
         <v>2.271944444444444</v>
       </c>
+      <c r="F16" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -763,6 +813,9 @@
       <c r="E17" t="n">
         <v>1.308055555555556</v>
       </c>
+      <c r="F17" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -782,6 +835,9 @@
       <c r="E18" t="n">
         <v>2.349166666666667</v>
       </c>
+      <c r="F18" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -801,6 +857,9 @@
       <c r="E19" t="n">
         <v>0.4802777777777777</v>
       </c>
+      <c r="F19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -820,6 +879,9 @@
       <c r="E20" t="n">
         <v>1.246111111111111</v>
       </c>
+      <c r="F20" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -839,6 +901,9 @@
       <c r="E21" t="n">
         <v>0.4555555555555555</v>
       </c>
+      <c r="F21" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -858,6 +923,9 @@
       <c r="E22" t="n">
         <v>0.7205555555555556</v>
       </c>
+      <c r="F22" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -877,6 +945,9 @@
       <c r="E23" t="n">
         <v>1.339166666666667</v>
       </c>
+      <c r="F23" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -896,6 +967,9 @@
       <c r="E24" t="n">
         <v>2.843333333333333</v>
       </c>
+      <c r="F24" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -915,6 +989,9 @@
       <c r="E25" t="n">
         <v>0.7761111111111112</v>
       </c>
+      <c r="F25" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -934,6 +1011,9 @@
       <c r="E26" t="n">
         <v>0.9997222222222223</v>
       </c>
+      <c r="F26" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -953,6 +1033,9 @@
       <c r="E27" t="n">
         <v>1.538888888888889</v>
       </c>
+      <c r="F27" t="n">
+        <v>26</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -972,6 +1055,9 @@
       <c r="E28" t="n">
         <v>0.1461111111111111</v>
       </c>
+      <c r="F28" t="n">
+        <v>27</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -991,6 +1077,9 @@
       <c r="E29" t="n">
         <v>1.344444444444445</v>
       </c>
+      <c r="F29" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1010,6 +1099,9 @@
       <c r="E30" t="n">
         <v>0.2763888888888889</v>
       </c>
+      <c r="F30" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1029,6 +1121,9 @@
       <c r="E31" t="n">
         <v>2.059722222222222</v>
       </c>
+      <c r="F31" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1048,6 +1143,9 @@
       <c r="E32" t="n">
         <v>2.375277777777778</v>
       </c>
+      <c r="F32" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1067,6 +1165,9 @@
       <c r="E33" t="n">
         <v>1.5</v>
       </c>
+      <c r="F33" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1086,6 +1187,9 @@
       <c r="E34" t="n">
         <v>0.5458333333333333</v>
       </c>
+      <c r="F34" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1105,6 +1209,9 @@
       <c r="E35" t="n">
         <v>0.4744444444444444</v>
       </c>
+      <c r="F35" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1124,6 +1231,9 @@
       <c r="E36" t="n">
         <v>1.106944444444445</v>
       </c>
+      <c r="F36" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1143,6 +1253,9 @@
       <c r="E37" t="n">
         <v>2.274444444444444</v>
       </c>
+      <c r="F37" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1162,6 +1275,9 @@
       <c r="E38" t="n">
         <v>0.5422222222222222</v>
       </c>
+      <c r="F38" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1181,6 +1297,9 @@
       <c r="E39" t="n">
         <v>1.371666666666667</v>
       </c>
+      <c r="F39" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1200,6 +1319,9 @@
       <c r="E40" t="n">
         <v>1.259166666666667</v>
       </c>
+      <c r="F40" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1219,6 +1341,9 @@
       <c r="E41" t="n">
         <v>1.205833333333333</v>
       </c>
+      <c r="F41" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1238,6 +1363,9 @@
       <c r="E42" t="n">
         <v>2.189722222222222</v>
       </c>
+      <c r="F42" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1257,6 +1385,9 @@
       <c r="E43" t="n">
         <v>1.499722222222222</v>
       </c>
+      <c r="F43" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1276,6 +1407,9 @@
       <c r="E44" t="n">
         <v>1.032222222222222</v>
       </c>
+      <c r="F44" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1295,6 +1429,9 @@
       <c r="E45" t="n">
         <v>0.5711111111111111</v>
       </c>
+      <c r="F45" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1314,6 +1451,9 @@
       <c r="E46" t="n">
         <v>1.322777777777778</v>
       </c>
+      <c r="F46" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1333,6 +1473,9 @@
       <c r="E47" t="n">
         <v>2.029444444444445</v>
       </c>
+      <c r="F47" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1352,6 +1495,9 @@
       <c r="E48" t="n">
         <v>1.415</v>
       </c>
+      <c r="F48" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1371,6 +1517,9 @@
       <c r="E49" t="n">
         <v>2.807777777777778</v>
       </c>
+      <c r="F49" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1390,6 +1539,9 @@
       <c r="E50" t="n">
         <v>2.718611111111111</v>
       </c>
+      <c r="F50" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1409,6 +1561,9 @@
       <c r="E51" t="n">
         <v>1.222777777777778</v>
       </c>
+      <c r="F51" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1428,6 +1583,9 @@
       <c r="E52" t="n">
         <v>2.738888888888889</v>
       </c>
+      <c r="F52" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1447,6 +1605,9 @@
       <c r="E53" t="n">
         <v>2.788333333333334</v>
       </c>
+      <c r="F53" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1466,6 +1627,9 @@
       <c r="E54" t="n">
         <v>1.625833333333333</v>
       </c>
+      <c r="F54" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1485,6 +1649,9 @@
       <c r="E55" t="n">
         <v>2.542222222222222</v>
       </c>
+      <c r="F55" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1504,6 +1671,9 @@
       <c r="E56" t="n">
         <v>0.3080555555555556</v>
       </c>
+      <c r="F56" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1523,6 +1693,9 @@
       <c r="E57" t="n">
         <v>0.3008333333333333</v>
       </c>
+      <c r="F57" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1542,6 +1715,9 @@
       <c r="E58" t="n">
         <v>1.711666666666667</v>
       </c>
+      <c r="F58" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1561,6 +1737,9 @@
       <c r="E59" t="n">
         <v>2.100833333333333</v>
       </c>
+      <c r="F59" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1580,6 +1759,9 @@
       <c r="E60" t="n">
         <v>1.200833333333333</v>
       </c>
+      <c r="F60" t="n">
+        <v>59</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1599,6 +1781,9 @@
       <c r="E61" t="n">
         <v>2.22</v>
       </c>
+      <c r="F61" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1618,6 +1803,9 @@
       <c r="E62" t="n">
         <v>1.109722222222222</v>
       </c>
+      <c r="F62" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1637,6 +1825,9 @@
       <c r="E63" t="n">
         <v>2.553611111111111</v>
       </c>
+      <c r="F63" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1656,6 +1847,9 @@
       <c r="E64" t="n">
         <v>0.1647222222222222</v>
       </c>
+      <c r="F64" t="n">
+        <v>63</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1675,6 +1869,9 @@
       <c r="E65" t="n">
         <v>1.390277777777778</v>
       </c>
+      <c r="F65" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1694,6 +1891,9 @@
       <c r="E66" t="n">
         <v>1.004444444444444</v>
       </c>
+      <c r="F66" t="n">
+        <v>65</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1713,6 +1913,9 @@
       <c r="E67" t="n">
         <v>0.8211111111111111</v>
       </c>
+      <c r="F67" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1732,6 +1935,9 @@
       <c r="E68" t="n">
         <v>1.159722222222222</v>
       </c>
+      <c r="F68" t="n">
+        <v>67</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1751,6 +1957,9 @@
       <c r="E69" t="n">
         <v>0.548611111111111</v>
       </c>
+      <c r="F69" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1770,6 +1979,9 @@
       <c r="E70" t="n">
         <v>2.338055555555556</v>
       </c>
+      <c r="F70" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -1789,6 +2001,9 @@
       <c r="E71" t="n">
         <v>2.412777777777778</v>
       </c>
+      <c r="F71" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -1808,6 +2023,9 @@
       <c r="E72" t="n">
         <v>2.555277777777778</v>
       </c>
+      <c r="F72" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -1827,6 +2045,9 @@
       <c r="E73" t="n">
         <v>1.148055555555556</v>
       </c>
+      <c r="F73" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -1846,6 +2067,9 @@
       <c r="E74" t="n">
         <v>1.458888888888889</v>
       </c>
+      <c r="F74" t="n">
+        <v>73</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -1865,6 +2089,9 @@
       <c r="E75" t="n">
         <v>2.136666666666666</v>
       </c>
+      <c r="F75" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -1884,6 +2111,9 @@
       <c r="E76" t="n">
         <v>2.376111111111111</v>
       </c>
+      <c r="F76" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -1903,6 +2133,9 @@
       <c r="E77" t="n">
         <v>0.8788888888888889</v>
       </c>
+      <c r="F77" t="n">
+        <v>76</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -1922,6 +2155,9 @@
       <c r="E78" t="n">
         <v>2.0875</v>
       </c>
+      <c r="F78" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -1941,6 +2177,9 @@
       <c r="E79" t="n">
         <v>1.557777777777778</v>
       </c>
+      <c r="F79" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -1960,6 +2199,9 @@
       <c r="E80" t="n">
         <v>0.3716666666666667</v>
       </c>
+      <c r="F80" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -1979,6 +2221,9 @@
       <c r="E81" t="n">
         <v>1.191944444444444</v>
       </c>
+      <c r="F81" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -1998,6 +2243,9 @@
       <c r="E82" t="n">
         <v>2.106666666666667</v>
       </c>
+      <c r="F82" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2017,6 +2265,9 @@
       <c r="E83" t="n">
         <v>0.2366666666666667</v>
       </c>
+      <c r="F83" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2036,6 +2287,9 @@
       <c r="E84" t="n">
         <v>0.8127777777777777</v>
       </c>
+      <c r="F84" t="n">
+        <v>83</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2055,6 +2309,9 @@
       <c r="E85" t="n">
         <v>2.224166666666667</v>
       </c>
+      <c r="F85" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2074,6 +2331,9 @@
       <c r="E86" t="n">
         <v>1.085277777777778</v>
       </c>
+      <c r="F86" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2093,6 +2353,9 @@
       <c r="E87" t="n">
         <v>1.430555555555556</v>
       </c>
+      <c r="F87" t="n">
+        <v>86</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2112,6 +2375,9 @@
       <c r="E88" t="n">
         <v>1.0825</v>
       </c>
+      <c r="F88" t="n">
+        <v>87</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2131,6 +2397,9 @@
       <c r="E89" t="n">
         <v>1.265277777777778</v>
       </c>
+      <c r="F89" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2150,6 +2419,9 @@
       <c r="E90" t="n">
         <v>1.755555555555556</v>
       </c>
+      <c r="F90" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2169,6 +2441,9 @@
       <c r="E91" t="n">
         <v>1.8525</v>
       </c>
+      <c r="F91" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2188,6 +2463,9 @@
       <c r="E92" t="n">
         <v>0.33</v>
       </c>
+      <c r="F92" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2207,6 +2485,9 @@
       <c r="E93" t="n">
         <v>2.174444444444445</v>
       </c>
+      <c r="F93" t="n">
+        <v>92</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2226,6 +2507,9 @@
       <c r="E94" t="n">
         <v>1.5275</v>
       </c>
+      <c r="F94" t="n">
+        <v>93</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2245,6 +2529,9 @@
       <c r="E95" t="n">
         <v>2.510555555555555</v>
       </c>
+      <c r="F95" t="n">
+        <v>94</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2264,6 +2551,9 @@
       <c r="E96" t="n">
         <v>0.9880555555555556</v>
       </c>
+      <c r="F96" t="n">
+        <v>95</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2283,6 +2573,9 @@
       <c r="E97" t="n">
         <v>0.7677777777777778</v>
       </c>
+      <c r="F97" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2302,6 +2595,9 @@
       <c r="E98" t="n">
         <v>0.3219444444444444</v>
       </c>
+      <c r="F98" t="n">
+        <v>97</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2321,6 +2617,9 @@
       <c r="E99" t="n">
         <v>2.559722222222222</v>
       </c>
+      <c r="F99" t="n">
+        <v>98</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2340,6 +2639,9 @@
       <c r="E100" t="n">
         <v>2.518888888888889</v>
       </c>
+      <c r="F100" t="n">
+        <v>99</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2358,6 +2660,9 @@
       </c>
       <c r="E101" t="n">
         <v>1.112777777777778</v>
+      </c>
+      <c r="F101" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
